--- a/branches/CodeSystem-be-vs-contrastfluid-use.xlsx
+++ b/branches/CodeSystem-be-vs-contrastfluid-use.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/CodeSystem-be-vs-contrastfluid-use.xlsx
+++ b/branches/CodeSystem-be-vs-contrastfluid-use.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/CodeSystem-be-vs-contrastfluid-use.xlsx
+++ b/branches/CodeSystem-be-vs-contrastfluid-use.xlsx
@@ -260,10 +260,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
